--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Habiba Magdy Kamel Mahmoud Ammar</x:t>
   </x:si>
   <x:si>
-    <x:t>1210365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسن ايمن السيد عبدالخالق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hassan ayman elsayed abdelkhalek</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210216</x:t>
   </x:si>
   <x:si>
@@ -141,15 +132,6 @@
     <x:t>Sohaila ahmed Soliman Abdelrahman</x:t>
   </x:si>
   <x:si>
-    <x:t>1210387</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الحليم محمد ياسين احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelhaleem mohamed yaseen ahmed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200189</x:t>
   </x:si>
   <x:si>
@@ -159,15 +141,6 @@
     <x:t>abdelrahman</x:t>
   </x:si>
   <x:si>
-    <x:t>1210152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على الدين محمد احمد كمال على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALIELDIN MOHAMED AHMED KAMAL ALI</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210259</x:t>
   </x:si>
   <x:si>
@@ -177,15 +150,6 @@
     <x:t>Omar Ahmed Shawky Adbdelgawadd</x:t>
   </x:si>
   <x:si>
-    <x:t>1210263</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر خالد محمد لطفى عبد العزيز محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Khaled Lotfi Abd Elaziz Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210022</x:t>
   </x:si>
   <x:si>
@@ -211,24 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud hamdy awad elsayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210114</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم خالد ابراهيم الدسوقى حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Khaled Ibrahim Eldessoki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210082</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي محمود فاروق محمد الدامي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa mahmoud farouk mohamed eldamy</x:t>
   </x:si>
   <x:si>
     <x:t>1220104</x:t>
@@ -389,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -699,7 +645,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.490625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -780,7 +726,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4298361921</x:v>
+        <x:v>45927.5294476042</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -940,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4195042477</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4533125347</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4142920486</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.5366528935</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647546296</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4209340625</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1437,198 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.4752753125</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.4151941319</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.4185952894</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.6654673958</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45909.5512003472</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1210185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد ايمن عبد الحميد عبد العزيز وهدان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Ayman Abdelhamid Abdelaziz Wahdan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220002</x:t>
   </x:si>
   <x:si>
@@ -58,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Ossama Khaled Hussein EzzElDin Zaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باكينام حاتم حافظ شعبان السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pakiname hatem hafez chaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1210004</x:t>
@@ -335,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -643,9 +625,9 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="29.490625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.460625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -726,7 +708,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45927.5294476042</x:v>
+        <x:v>45907.4190501505</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -758,7 +740,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4190501505</x:v>
+        <x:v>45906.4149104167</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -790,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4149104167</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -822,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4321978356</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.4533125347</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4151941319</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1319,70 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45909.5512003472</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ossama Khaled Hussein EzzElDin Zaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باكينام حاتم حافظ شعبان السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pakiname hatem hafez chaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1210004</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -627,7 +636,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.460625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -772,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45928.4576759259</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.4533125347</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4151941319</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45909.5512003472</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Habiba Magdy Kamel Mahmoud Ammar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسن ايمن السيد عبدالخالق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hassan ayman elsayed abdelkhalek</x:t>
   </x:si>
   <x:si>
     <x:t>1210216</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -845,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45929.5584239236</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.4533125347</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4151941319</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45909.5512003472</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Sohaila ahmed Soliman Abdelrahman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله اشرف فاروق قاسم قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Farouk Kassem</x:t>
   </x:si>
   <x:si>
     <x:t>1200189</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1078,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45930.3397827199</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4151941319</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.5512003472</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45909.5512003472</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ossama Khaled Hussein EzzElDin Zaki</x:t>
   </x:si>
   <x:si>
-    <x:t>1210131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باكينام حاتم حافظ شعبان السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pakiname hatem hafez chaaban</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210004</x:t>
   </x:si>
   <x:si>
@@ -112,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Ziad mohamed mahmoud abdel al Hussien</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سهيلة عمرو عبد العزيز احمد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sohaila amr abdelaziz</x:t>
   </x:si>
   <x:si>
     <x:t>1200347</x:t>
@@ -344,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -799,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45928.4576759259</x:v>
+        <x:v>45906.415371412</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -831,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45929.5584239236</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -863,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45929.5584239236</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4533125347</x:v>
+        <x:v>45930.3397827199</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45930.3397827199</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4151941319</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1360,70 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45906.6653604977</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45909.5512003472</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Habiba Magdy Kamel Mahmoud Ammar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حسن ايمن السيد عبدالخالق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hassan ayman elsayed abdelkhalek</x:t>
   </x:si>
   <x:si>
     <x:t>1210216</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -636,7 +627,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.460625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="43.960625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -813,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45929.5584239236</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -845,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -877,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -909,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -941,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -973,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45930.3397827199</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1005,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45930.3397827199</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1037,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1069,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1101,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4151941319</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45909.5512003472</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Ossama Khaled Hussein EzzElDin Zaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حبيبه مجدى كامل محمود عمار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Magdy Kamel Mahmoud Ammar</x:t>
   </x:si>
   <x:si>
     <x:t>1210216</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -772,7 +763,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.415371412</x:v>
+        <x:v>45906.4150331829</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +795,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4150331829</x:v>
+        <x:v>45907.4146741551</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4146741551</x:v>
+        <x:v>45906.4432493403</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4432493403</x:v>
+        <x:v>45906.4265956829</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4265956829</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45930.3397827199</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45930.3397827199</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45906.4144406597</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4144406597</x:v>
+        <x:v>45906.4434304398</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4434304398</x:v>
+        <x:v>45906.4166358449</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4166358449</x:v>
+        <x:v>45906.4147947569</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4147947569</x:v>
+        <x:v>45907.4151941319</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4151941319</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6654673958</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6654673958</x:v>
+        <x:v>45906.6653604977</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653604977</x:v>
+        <x:v>45909.5512003472</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45909.5512003472</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES427_Tutorial-35477.xlsx
+++ b/downloaded_files/EPES427_Tutorial-35477.xlsx
@@ -1266,11 +1266,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Intelligent Control (EPES427) Location : [18202]18202-60-الجيزة الرئيسي Time : Wednesday(13:15)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Intelligent Control (EPES427) Location : [20506]20506-45-الجيزة الرئيسي Time : Wednesday(13:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Intelligent Control (EPES427) Location : [18202]18202-60-الجيزة الرئيسي Time : Wednesday(13:15)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Intelligent Control (EPES427) Location : [20506]20506-45-الجيزة الرئيسي Time : Wednesday(13:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Intelligent Control (EPES427) Location : [18202]18202-60-الجيزة الرئيسي Time : Wednesday(13:15)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Intelligent Control (EPES427) Location : [20506]20506-45-الجيزة الرئيسي Time : Wednesday(13:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
